--- a/results/mp/deberta/corona/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
@@ -121,12 +121,12 @@
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -139,13 +139,13 @@
     <t>relief</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hand</t>
   </si>
   <si>
     <t>share</t>
@@ -1453,25 +1453,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6869565217391305</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L22">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="M22">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.676056338028169</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L23">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="M23">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1609,25 +1609,25 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5565749235474006</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L28">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="N28">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O28">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>145</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1635,25 +1635,25 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5517241379310345</v>
+        <v>0.5511811023622047</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="N29">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1661,25 +1661,25 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5511811023622047</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L30">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="M30">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="10:17">
